--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erics\Documents\Programme\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6BDD4-DAE6-4349-A077-1222834603DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5EC41-382D-4993-8E0A-8AB0D4DF3CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1092" yWindow="1908" windowWidth="21516" windowHeight="9768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
   <si>
     <t>mig</t>
   </si>
@@ -271,13 +272,151 @@
   </si>
   <si>
     <t>sum 35 Beta 75 lernt nur schwarz</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Reconstruction</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>passabel</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>läuft</t>
+  </si>
+  <si>
+    <t>likeDQNConvB6_TC0_Lat10_Epochs100VAE28-4</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC15_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC25_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB4_TC10_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB2_TC1_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB5_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB7_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB2_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB4_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC6_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC10_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC2_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC4_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB0_TC0_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB0.5_TC0.5_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC1_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB0.1_TC0.1_Lat10_Epochs100VAE2-5</t>
+  </si>
+  <si>
+    <t>runL1L1Convs_Gamma0.1_Beta2VAE3-5</t>
+  </si>
+  <si>
+    <t>runL1L1Convs_Gamma0.1_Beta5VAE3-5</t>
+  </si>
+  <si>
+    <t>L1 2x2 Bilder</t>
+  </si>
+  <si>
+    <t>Ball first likeDQNConvB3_TC0_Lat10_Epochs100VAE3-5</t>
+  </si>
+  <si>
+    <t>L1 normal runL1likeDQN_Gamma0.1_Beta1VAE3-5</t>
+  </si>
+  <si>
+    <t>runL1likeDQN_Gamma0.1_Beta2VAE3-5</t>
+  </si>
+  <si>
+    <t>runL1likeDQN_Gamma0.1_Beta5VAE3-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB3_TC0_Lat10_Epochs100VAE3-5</t>
+  </si>
+  <si>
+    <t>Random seed 3</t>
+  </si>
+  <si>
+    <t>Random Seed 5</t>
+  </si>
+  <si>
+    <t>Random Seed 71</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>mean &amp; full BN</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC1_Lat10_Epochs100VAErandomSeed34-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC1_Lat10_Epochs100VAErandomSeed54-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB1_TC1_Lat10_Epochs100VAErandomSeed714-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB5_TC0_Lat10_Epochs100VAErandomSeed34-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB5_TC0_Lat10_Epochs100VAErandomSeed54-5</t>
+  </si>
+  <si>
+    <t>likeDQNConvB5_TC0_Lat10_Epochs100VAErandomSeed714-5</t>
+  </si>
+  <si>
+    <t>Full BN</t>
+  </si>
+  <si>
+    <t>likeDQNConvB2_TC0_Lat10_Epochs100VAErandomSeed34-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +428,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,13 +456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3271,6 +3419,99 @@
         <a:xfrm>
           <a:off x="36206206" y="21145501"/>
           <a:ext cx="2451492" cy="1860176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>898803</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3523371</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>907473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60F574E-BB37-4728-8C79-4F65EECBCBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6094258" y="734940"/>
+          <a:ext cx="3532040" cy="892969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3565635</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>899161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794285A-7E32-43E1-BEE7-E27E49E96D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4080511" y="1463041"/>
+          <a:ext cx="3565634" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
@@ -4281,4 +4522,1012 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292A1CA-D34B-4830-BEC7-D79C7052B7A2}">
+  <dimension ref="A1:Q55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="50.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.26171875" customWidth="1"/>
+    <col min="10" max="10" width="15.734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.9453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="L2">
+        <v>2.6094144520696399E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.7411628031902798E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.99975000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="L3">
+        <v>5.1089884769594203E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.0438768253934701E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="L4">
+        <v>2.2169476545412101E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.49676499320389E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.99934999999999996</v>
+      </c>
+      <c r="K5">
+        <v>0.92189999999999905</v>
+      </c>
+      <c r="L5">
+        <v>3.9363574792764797E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.0976704331162201E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="86.4" customHeight="1">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <v>0.99954999999999905</v>
+      </c>
+      <c r="K6">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="L6">
+        <v>2.6238730441169401E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.49448318506309E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="86.4" customHeight="1">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="L7">
+        <v>7.1448627544955798E-3</v>
+      </c>
+      <c r="M7">
+        <v>6.1430029105873901E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.5232445078450499E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.69256795083709E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.92599999999999905</v>
+      </c>
+      <c r="L8">
+        <v>8.8239826437872503E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7.4470218157802696E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.9244</v>
+      </c>
+      <c r="L9">
+        <v>1.8401869346284801E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.4364329938506599E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L10">
+        <v>1.4399190381731399E-2</v>
+      </c>
+      <c r="M10">
+        <v>8.21626411718295E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="K11">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="L11">
+        <v>1.7307685480153899E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.5433349146477499E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K13">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L13">
+        <v>1.8810870814072501E-2</v>
+      </c>
+      <c r="M13">
+        <v>9.1054653269716998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K15">
+        <v>0.9264</v>
+      </c>
+      <c r="L15">
+        <v>1.78594065124658E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.1337368620343201E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="L16">
+        <v>1.8854396945044202E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.1190750738788001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.99975000000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="L17">
+        <v>4.6701136289427096E-3</v>
+      </c>
+      <c r="M17">
+        <v>5.2971424471926999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="K19">
+        <v>0.9335</v>
+      </c>
+      <c r="L19">
+        <v>1.79326277590738E-2</v>
+      </c>
+      <c r="M19">
+        <v>7.4366644652187801E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.92629999999999901</v>
+      </c>
+      <c r="L20">
+        <v>9.6454092190154193E-3</v>
+      </c>
+      <c r="M20">
+        <v>6.4843861278710497E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="L21">
+        <v>2.0274090380101799E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.2804828310778201E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.99964999999999904</v>
+      </c>
+      <c r="K23">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="L23">
+        <v>1.2287915648001101E-2</v>
+      </c>
+      <c r="M23">
+        <v>7.2008048090295698E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="L26">
+        <v>3.6724297481215001E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.4248700274705E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.9345</v>
+      </c>
+      <c r="L27">
+        <v>4.4284822413916097E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.9865475279692801E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="L28">
+        <v>3.3284132698531199E-2</v>
+      </c>
+      <c r="M28">
+        <v>2.1651912576623002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="L30">
+        <v>4.3570921029975201E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.6794694252315299E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0.99924999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.9294</v>
+      </c>
+      <c r="L31">
+        <v>1.8251187969354501E-2</v>
+      </c>
+      <c r="M31">
+        <v>9.10050183270311E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="J32">
+        <v>0.99895</v>
+      </c>
+      <c r="K32">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="L32">
+        <v>4.4794229325409399E-2</v>
+      </c>
+      <c r="M32">
+        <v>1.52675262893053E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K34">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="L34">
+        <v>1.2217799999999999E-2</v>
+      </c>
+      <c r="M34">
+        <v>1.5892E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1.9999999999999999E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.997</v>
+      </c>
+      <c r="K39">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="L39">
+        <v>6.0899999999999999E-3</v>
+      </c>
+      <c r="M39">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K41">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L41">
+        <v>2.5156000000000001E-2</v>
+      </c>
+      <c r="M41">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.99975000000000003</v>
+      </c>
+      <c r="K42">
+        <v>0.92198999999999998</v>
+      </c>
+      <c r="L42">
+        <v>1.6039999999999999E-2</v>
+      </c>
+      <c r="M42">
+        <v>1.2135999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K44">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L44">
+        <v>2.8129999999999999E-2</v>
+      </c>
+      <c r="M44">
+        <v>1.738E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.99914999999999998</v>
+      </c>
+      <c r="K45">
+        <v>0.92189900000000002</v>
+      </c>
+      <c r="L45">
+        <v>3.92447E-2</v>
+      </c>
+      <c r="M45">
+        <v>1.56998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="L47">
+        <v>6.2100000000000002E-3</v>
+      </c>
+      <c r="M47">
+        <v>1.5426E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.68964999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="L53">
+        <v>6.2379999999999996E-3</v>
+      </c>
+      <c r="M53">
+        <v>8.0300000000000007E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="K55">
+        <v>0.85555000000000003</v>
+      </c>
+      <c r="L55">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="M55">
+        <v>9.9919999999999991E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>